--- a/Quiniela Semana 13 NFL 2025.xlsx
+++ b/Quiniela Semana 13 NFL 2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="59">
   <si>
     <t>Judith Fernández Franco</t>
   </si>
@@ -37,6 +37,72 @@
     <t>Alberto Vargas Ortiz</t>
   </si>
   <si>
+    <t>Santos Vazquez Garza</t>
+  </si>
+  <si>
+    <t>José Roberto González Hernández</t>
+  </si>
+  <si>
+    <t>Andrea Bustamante Yapur</t>
+  </si>
+  <si>
+    <t>Gerardo Abraham Ayala Siqueiros</t>
+  </si>
+  <si>
+    <t>Raúl Humberto García Robledo</t>
+  </si>
+  <si>
+    <t>Maribel Baeza Adame</t>
+  </si>
+  <si>
+    <t>Alejandro Barragán Huerta</t>
+  </si>
+  <si>
+    <t>Luis Mendoza Armendáriz</t>
+  </si>
+  <si>
+    <t>Magaly Teresa Ochoa Lugo</t>
+  </si>
+  <si>
+    <t>Marisela Chacón Molina</t>
+  </si>
+  <si>
+    <t>Manuel Alejandro Escobar Aguilera</t>
+  </si>
+  <si>
+    <t>Jaime Jesús Irigoyen Hernández</t>
+  </si>
+  <si>
+    <t>Ana Alejandra Donati Lugo</t>
+  </si>
+  <si>
+    <t>José Carlos Salgado Gómez</t>
+  </si>
+  <si>
+    <t>Luis Alberto López Mónge</t>
+  </si>
+  <si>
+    <t>Erick Benavides Correa</t>
+  </si>
+  <si>
+    <t>Cynthia Jaqueline Peralta Sosa</t>
+  </si>
+  <si>
+    <t>Ilse Lozano Rodríguez</t>
+  </si>
+  <si>
+    <t>Ezequiel Chávez Gutierrez</t>
+  </si>
+  <si>
+    <t>Derek Manuel Calderón Rubio</t>
+  </si>
+  <si>
+    <t>José Eduardo López Acosta</t>
+  </si>
+  <si>
+    <t>Jerónimo Reyes Ibarra</t>
+  </si>
+  <si>
     <t>Green Bay - Packers</t>
   </si>
   <si>
@@ -58,6 +124,9 @@
     <t>Philadelphia - Eagles (Local)</t>
   </si>
   <si>
+    <t>Chicago - Bears</t>
+  </si>
+  <si>
     <t>San Francisco - 49ers</t>
   </si>
   <si>
@@ -67,6 +136,9 @@
     <t>Jacksonville - Jaguars</t>
   </si>
   <si>
+    <t>Tennessee - Titans (Local)</t>
+  </si>
+  <si>
     <t>Indianapolis - Colts (Local)</t>
   </si>
   <si>
@@ -85,6 +157,9 @@
     <t>Tampa Bay - Buccaneers (Local)</t>
   </si>
   <si>
+    <t>Arizona - Cardinals</t>
+  </si>
+  <si>
     <t>Los Angeles - Rams</t>
   </si>
   <si>
@@ -109,7 +184,13 @@
     <t>Denver - Broncos</t>
   </si>
   <si>
+    <t>Washington - Commanders (Local)</t>
+  </si>
+  <si>
     <t>New England - Patriots (Local)</t>
+  </si>
+  <si>
+    <t>New York - Giants</t>
   </si>
 </sst>
 </file>
@@ -441,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,52 +533,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="P1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="R1">
         <v>52</v>
@@ -508,52 +589,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="R2">
         <v>52</v>
@@ -564,52 +645,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="Q3" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="R3">
         <v>41</v>
@@ -620,52 +701,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="Q4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="R4">
         <v>49</v>
@@ -676,52 +757,52 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="R5">
         <v>35</v>
@@ -732,52 +813,52 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="Q6" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="R6">
         <v>53</v>
@@ -788,55 +869,1287 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="R7">
         <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>57</v>
+      </c>
+      <c r="R14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>57</v>
+      </c>
+      <c r="R15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>57</v>
+      </c>
+      <c r="R17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>57</v>
+      </c>
+      <c r="R19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>57</v>
+      </c>
+      <c r="R20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>57</v>
+      </c>
+      <c r="R21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>57</v>
+      </c>
+      <c r="R22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>57</v>
+      </c>
+      <c r="R23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>58</v>
+      </c>
+      <c r="R24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>57</v>
+      </c>
+      <c r="R25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>57</v>
+      </c>
+      <c r="R26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" t="s">
+        <v>53</v>
+      </c>
+      <c r="O27" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>57</v>
+      </c>
+      <c r="R27">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>57</v>
+      </c>
+      <c r="R28">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" t="s">
+        <v>54</v>
+      </c>
+      <c r="P29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>58</v>
+      </c>
+      <c r="R29">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Quiniela Semana 13 NFL 2025.xlsx
+++ b/Quiniela Semana 13 NFL 2025.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_F189B8770A6B7E1D046108DE8532AB21413A974F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8A49188-64E0-42FC-BABE-669027C1BDCF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -196,8 +215,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,13 +224,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -223,24 +266,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -278,7 +339,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -312,6 +373,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -346,9 +408,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -521,15 +584,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -584,8 +669,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -640,7 +725,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -696,8 +781,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -752,8 +837,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -808,8 +893,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -864,8 +949,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -920,8 +1005,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -976,8 +1061,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1032,8 +1117,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1088,8 +1173,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1144,7 +1229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1200,8 +1285,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1256,8 +1341,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1312,8 +1397,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -1368,8 +1453,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -1424,8 +1509,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -1480,8 +1565,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -1536,7 +1621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1592,7 +1677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1648,8 +1733,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -1704,8 +1789,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -1760,8 +1845,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -1816,8 +1901,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
-      <c r="A24" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -1872,8 +1957,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
-      <c r="A25" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -1928,7 +2013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1984,8 +2069,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
-      <c r="A27" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2040,8 +2125,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
-      <c r="A28" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2096,8 +2181,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
-      <c r="A29" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">

--- a/Quiniela Semana 13 NFL 2025.xlsx
+++ b/Quiniela Semana 13 NFL 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_F189B8770A6B7E1D046108DE8532AB21413A974F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8A49188-64E0-42FC-BABE-669027C1BDCF}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_F189B8770A6B7E1D046108DE8532AB21413A974F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{473327F5-4A07-4605-BE51-24ABC4F65B83}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,7 +588,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,7 +726,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1230,7 +1230,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -1678,7 +1678,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2014,7 +2014,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
